--- a/m1/js/doc/TouchControl.xlsx
+++ b/m1/js/doc/TouchControl.xlsx
@@ -9,12 +9,12 @@
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
-    <sheet name="itemsinfo" sheetId="988" r:id="rId994"/>
-    <sheet name="help" sheetId="987" r:id="rId993"/>
-    <sheet name="setting.ini" sheetId="986" r:id="rId992"/>
-    <sheet name="template-statefunc" sheetId="985" r:id="rId991"/>
-    <sheet name="template-source" sheetId="984" r:id="rId990"/>
-    <sheet name="config" sheetId="983" r:id="rId989"/>
+    <sheet name="itemsinfo" sheetId="1042" r:id="rId1048"/>
+    <sheet name="help" sheetId="1041" r:id="rId1047"/>
+    <sheet name="setting.ini" sheetId="1040" r:id="rId1046"/>
+    <sheet name="template-statefunc" sheetId="1039" r:id="rId1045"/>
+    <sheet name="template-source" sheetId="1038" r:id="rId1044"/>
+    <sheet name="config" sheetId="1037" r:id="rId1043"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2952" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3014" uniqueCount="604">
   <si>
     <t>state</t>
     <phoneticPr fontId="2"/>
@@ -15587,6 +15587,722 @@
 @@@
 fillter_state_location_list=@@@
 [{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":45,"y":26}},{"Key":"S_END","Value":{"x":1974,"y":69}},{"Key":"S_WAIT","Value":{"x":284,"y":25}},{"Key":"S_RAYCAST","Value":{"x":1742,"y":58}},{"Key":"S_IS_CLICK","Value":{"x":1518,"y":114}},{"Key":"S_RAYCAST1","Value":{"x":41,"y":710}},{"Key":"S_CHECK_MDOWN","Value":{"x":1086,"y":36}},{"Key":"S_SAVE_POS","Value":{"x":275,"y":536}},{"Key":"S_WAIT_MOUSE_UP","Value":{"x":1103,"y":931}},{"Key":"S_SET_UP","Value":{"x":633,"y":516}},{"Key":"S_SET_RIGHT","Value":{"x":637,"y":653}},{"Key":"S_SET_DOWN","Value":{"x":631,"y":774}},{"Key":"S_SET_LEFT","Value":{"x":610,"y":894}},{"Key":"S_WAIT_REQCB","Value":{"x":557,"y":32}},{"Key":"S_REQCB","Value":{"x":872,"y":611}},{"Key":"S_WAIT_MOUSE_UP1","Value":{"x":785,"y":20}},{"Key":"C_0003","Value":{"x":186,"y":371}},{"Key":"S_REQCB1","Value":{"x":1142,"y":598}},{"Key":"S_CHECK_COMPLETE","Value":{"x":1142,"y":598}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Brackets\Brackets.exe" %1
+@@@
+source_editor_vs2015_support=1
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=0
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+option_hide_basestate_contents=1
+option_hide_branchcmt_onbranchbox=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+comment_font_size=0
+contents_font_size=0
+state_width=140
+state_height=20
+comment_block_height=4
+content_max_height=200
+comment_block_fixed=0
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/04/13 20:59:35
+; * pssgEditor version : 0.23.40293.f0b9fd4248d354ec440680d9161406ae26d4945e
+psggfile=@@@
+TouchControl.psgg
+@@@
+xlsfile=@@@
+TouchControl.xlsx
+@@@
+guid=@@@
+a660a018-d119-4970-98d2-ab2e10a7b970
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Initilized
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+nodegroup_comment_list=@@@
+[{"Key":"\/","Value":"This is the root"}]
+@@@
+nodegroup_pos_list=@@@
+[{"Key":"\/","Value":{"x":100,"y":100}}]
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":45,"y":26}},{"Key":"S_END","Value":{"x":1974,"y":69}},{"Key":"S_WAIT","Value":{"x":284,"y":25}},{"Key":"S_RAYCAST","Value":{"x":1742,"y":58}},{"Key":"S_IS_CLICK","Value":{"x":1518,"y":114}},{"Key":"S_RAYCAST1","Value":{"x":41,"y":710}},{"Key":"S_CHECK_MDOWN","Value":{"x":1086,"y":36}},{"Key":"S_SAVE_POS","Value":{"x":275,"y":536}},{"Key":"S_WAIT_MOUSE_UP","Value":{"x":1103,"y":931}},{"Key":"S_SET_UP","Value":{"x":633,"y":516}},{"Key":"S_SET_RIGHT","Value":{"x":637,"y":653}},{"Key":"S_SET_DOWN","Value":{"x":631,"y":774}},{"Key":"S_SET_LEFT","Value":{"x":610,"y":894}},{"Key":"S_WAIT_REQCB","Value":{"x":557,"y":32}},{"Key":"S_REQCB","Value":{"x":872,"y":611}},{"Key":"S_WAIT_MOUSE_UP1","Value":{"x":785,"y":20}},{"Key":"C_0003","Value":{"x":186,"y":371}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Brackets\Brackets.exe" %1
+@@@
+source_editor_vs2015_support=1
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=0
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+option_hide_basestate_contents=1
+option_hide_branchcmt_onbranchbox=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+comment_font_size=0
+contents_font_size=0
+state_width=140
+state_height=20
+comment_block_height=4
+content_max_height=200
+comment_block_fixed=0
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>alert("!#");</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/04/13 21:00:52
+; * pssgEditor version : 0.23.40293.f0b9fd4248d354ec440680d9161406ae26d4945e
+psggfile=@@@
+TouchControl.psgg
+@@@
+xlsfile=@@@
+TouchControl.xlsx
+@@@
+guid=@@@
+a660a018-d119-4970-98d2-ab2e10a7b970
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+nodegroup_comment_list=@@@
+[{"Key":"\/","Value":"This is the root"}]
+@@@
+nodegroup_pos_list=@@@
+[{"Key":"\/","Value":{"x":100,"y":100}}]
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":45,"y":26}},{"Key":"S_END","Value":{"x":1974,"y":69}},{"Key":"S_WAIT","Value":{"x":284,"y":25}},{"Key":"S_RAYCAST","Value":{"x":1742,"y":58}},{"Key":"S_IS_CLICK","Value":{"x":1518,"y":114}},{"Key":"S_RAYCAST1","Value":{"x":41,"y":710}},{"Key":"S_CHECK_MDOWN","Value":{"x":1086,"y":36}},{"Key":"S_SAVE_POS","Value":{"x":275,"y":536}},{"Key":"S_WAIT_MOUSE_UP","Value":{"x":1103,"y":931}},{"Key":"S_SET_UP","Value":{"x":633,"y":516}},{"Key":"S_SET_RIGHT","Value":{"x":637,"y":653}},{"Key":"S_SET_DOWN","Value":{"x":631,"y":774}},{"Key":"S_SET_LEFT","Value":{"x":610,"y":894}},{"Key":"S_WAIT_REQCB","Value":{"x":557,"y":32}},{"Key":"S_REQCB","Value":{"x":872,"y":611}},{"Key":"S_WAIT_MOUSE_UP1","Value":{"x":785,"y":20}},{"Key":"C_0003","Value":{"x":186,"y":371}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Brackets\Brackets.exe" %1
+@@@
+source_editor_vs2015_support=1
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=0
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+option_hide_basestate_contents=1
+option_hide_branchcmt_onbranchbox=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+comment_font_size=0
+contents_font_size=0
+state_width=140
+state_height=20
+comment_block_height=4
+content_max_height=200
+comment_block_fixed=0
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>alert("!#"+  this.m_hitobj_name );</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/04/13 21:02:44
+; * pssgEditor version : 0.23.40293.f0b9fd4248d354ec440680d9161406ae26d4945e
+psggfile=@@@
+TouchControl.psgg
+@@@
+xlsfile=@@@
+TouchControl.xlsx
+@@@
+guid=@@@
+a660a018-d119-4970-98d2-ab2e10a7b970
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+nodegroup_comment_list=@@@
+[{"Key":"\/","Value":"This is the root"}]
+@@@
+nodegroup_pos_list=@@@
+[{"Key":"\/","Value":{"x":100,"y":100}}]
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":45,"y":26}},{"Key":"S_END","Value":{"x":1974,"y":69}},{"Key":"S_WAIT","Value":{"x":284,"y":25}},{"Key":"S_RAYCAST","Value":{"x":1742,"y":58}},{"Key":"S_IS_CLICK","Value":{"x":1518,"y":114}},{"Key":"S_RAYCAST1","Value":{"x":41,"y":710}},{"Key":"S_CHECK_MDOWN","Value":{"x":1086,"y":36}},{"Key":"S_SAVE_POS","Value":{"x":275,"y":536}},{"Key":"S_WAIT_MOUSE_UP","Value":{"x":1103,"y":931}},{"Key":"S_SET_UP","Value":{"x":633,"y":516}},{"Key":"S_SET_RIGHT","Value":{"x":637,"y":653}},{"Key":"S_SET_DOWN","Value":{"x":631,"y":774}},{"Key":"S_SET_LEFT","Value":{"x":610,"y":894}},{"Key":"S_WAIT_REQCB","Value":{"x":557,"y":32}},{"Key":"S_REQCB","Value":{"x":872,"y":611}},{"Key":"S_WAIT_MOUSE_UP1","Value":{"x":785,"y":20}},{"Key":"C_0003","Value":{"x":186,"y":371}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Brackets\Brackets.exe" %1
+@@@
+source_editor_vs2015_support=1
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=0
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+option_hide_basestate_contents=1
+option_hide_branchcmt_onbranchbox=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+comment_font_size=0
+contents_font_size=0
+state_width=140
+state_height=20
+comment_block_height=4
+content_max_height=200
+comment_block_fixed=0
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>//alert("!#"+  this.m_hitobj_name );</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/04/13 21:05:10
+; * pssgEditor version : 0.23.40293.f0b9fd4248d354ec440680d9161406ae26d4945e
+psggfile=@@@
+TouchControl.psgg
+@@@
+xlsfile=@@@
+TouchControl.xlsx
+@@@
+guid=@@@
+a660a018-d119-4970-98d2-ab2e10a7b970
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+nodegroup_comment_list=@@@
+[{"Key":"\/","Value":"This is the root"}]
+@@@
+nodegroup_pos_list=@@@
+[{"Key":"\/","Value":{"x":100,"y":100}}]
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":45,"y":26}},{"Key":"S_END","Value":{"x":1974,"y":69}},{"Key":"S_WAIT","Value":{"x":284,"y":25}},{"Key":"S_RAYCAST","Value":{"x":1742,"y":58}},{"Key":"S_IS_CLICK","Value":{"x":1518,"y":114}},{"Key":"S_RAYCAST1","Value":{"x":41,"y":710}},{"Key":"S_CHECK_MDOWN","Value":{"x":1086,"y":36}},{"Key":"S_SAVE_POS","Value":{"x":275,"y":536}},{"Key":"S_WAIT_MOUSE_UP","Value":{"x":1103,"y":931}},{"Key":"S_SET_UP","Value":{"x":633,"y":516}},{"Key":"S_SET_RIGHT","Value":{"x":637,"y":653}},{"Key":"S_SET_DOWN","Value":{"x":631,"y":774}},{"Key":"S_SET_LEFT","Value":{"x":610,"y":894}},{"Key":"S_WAIT_REQCB","Value":{"x":557,"y":32}},{"Key":"S_REQCB","Value":{"x":872,"y":611}},{"Key":"S_WAIT_MOUSE_UP1","Value":{"x":785,"y":20}},{"Key":"C_0003","Value":{"x":186,"y":371}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Brackets\Brackets.exe" %1
+@@@
+source_editor_vs2015_support=1
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=0
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+option_hide_basestate_contents=1
+option_hide_branchcmt_onbranchbox=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+comment_font_size=0
+contents_font_size=0
+state_width=140
+state_height=20
+comment_block_height=4
+content_max_height=200
+comment_block_fixed=0
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>this.m_hitobj_name = null;
+console.log("[[state]]");</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/04/15 21:14:32
+; * pssgEditor version : 0.51.1337.973e447d167910305e637b16a7bdd1baa4ae7a6e
+psggfile=@@@
+TouchControl.psgg
+@@@
+xlsfile=@@@
+TouchControl.xlsx
+@@@
+guid=@@@
+a660a018-d119-4970-98d2-ab2e10a7b970
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+nodegroup_comment_list=@@@
+[{"Key":"\/","Value":"This is the root"}]
+@@@
+nodegroup_pos_list=@@@
+[{"Key":"\/","Value":{"x":100,"y":100}}]
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":45,"y":26}},{"Key":"S_END","Value":{"x":1974,"y":69}},{"Key":"S_WAIT","Value":{"x":284,"y":25}},{"Key":"S_RAYCAST","Value":{"x":1742,"y":58}},{"Key":"S_IS_CLICK","Value":{"x":1518,"y":114}},{"Key":"S_RAYCAST1","Value":{"x":41,"y":710}},{"Key":"S_CHECK_MDOWN","Value":{"x":1086,"y":36}},{"Key":"S_SAVE_POS","Value":{"x":275,"y":536}},{"Key":"S_WAIT_MOUSE_UP","Value":{"x":1103,"y":931}},{"Key":"S_SET_UP","Value":{"x":633,"y":516}},{"Key":"S_SET_RIGHT","Value":{"x":637,"y":653}},{"Key":"S_SET_DOWN","Value":{"x":631,"y":774}},{"Key":"S_SET_LEFT","Value":{"x":610,"y":894}},{"Key":"S_WAIT_REQCB","Value":{"x":557,"y":32}},{"Key":"S_REQCB","Value":{"x":872,"y":611}},{"Key":"S_WAIT_MOUSE_UP1","Value":{"x":785,"y":20}},{"Key":"C_0003","Value":{"x":186,"y":371}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Brackets\Brackets.exe" %1
+@@@
+source_editor_vs2015_support=1
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=0
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+option_hide_basestate_contents=1
+option_hide_branchcmt_onbranchbox=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+comment_font_size=0
+contents_font_size=0
+state_width=140
+state_height=20
+comment_block_height=4
+content_max_height=200
+comment_block_fixed=0
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/04/15 21:15:00
+; * pssgEditor version : 0.51.1337.973e447d167910305e637b16a7bdd1baa4ae7a6e
+psggfile=@@@
+TouchControl.psgg
+@@@
+xlsfile=@@@
+TouchControl.xlsx
+@@@
+guid=@@@
+a660a018-d119-4970-98d2-ab2e10a7b970
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+nodegroup_comment_list=@@@
+[{"Key":"\/","Value":"This is the root"}]
+@@@
+nodegroup_pos_list=@@@
+[{"Key":"\/","Value":{"x":100,"y":100}}]
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":45,"y":26}},{"Key":"S_END","Value":{"x":1974,"y":69}},{"Key":"S_WAIT","Value":{"x":284,"y":25}},{"Key":"S_RAYCAST","Value":{"x":1742,"y":58}},{"Key":"S_IS_CLICK","Value":{"x":1518,"y":114}},{"Key":"S_RAYCAST1","Value":{"x":41,"y":710}},{"Key":"S_CHECK_MDOWN","Value":{"x":1086,"y":36}},{"Key":"S_SAVE_POS","Value":{"x":275,"y":536}},{"Key":"S_WAIT_MOUSE_UP","Value":{"x":1103,"y":931}},{"Key":"S_SET_UP","Value":{"x":633,"y":516}},{"Key":"S_SET_RIGHT","Value":{"x":637,"y":653}},{"Key":"S_SET_DOWN","Value":{"x":631,"y":774}},{"Key":"S_SET_LEFT","Value":{"x":610,"y":894}},{"Key":"S_WAIT_REQCB","Value":{"x":557,"y":32}},{"Key":"S_REQCB","Value":{"x":872,"y":611}},{"Key":"S_WAIT_MOUSE_UP1","Value":{"x":785,"y":20}},{"Key":"C_0003","Value":{"x":186,"y":371}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Brackets\Brackets.exe" %1
+@@@
+source_editor_vs2015_support=1
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=0
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+option_hide_basestate_contents=1
+option_hide_branchcmt_onbranchbox=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+comment_font_size=0
+contents_font_size=0
+state_width=140
+state_height=20
+comment_block_height=4
+content_max_height=200
+comment_block_fixed=0
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>this.m_savepos_x = G.mouse.x;
+this.m_savepos_y = G.mouse.y;
+console.log("[[state]]  ");
+//console.log(G.mouse);
+</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/04/15 21:18:45
+; * pssgEditor version : 0.51.1337.973e447d167910305e637b16a7bdd1baa4ae7a6e
+psggfile=@@@
+TouchControl.psgg
+@@@
+xlsfile=@@@
+TouchControl.xlsx
+@@@
+guid=@@@
+a660a018-d119-4970-98d2-ab2e10a7b970
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+nodegroup_comment_list=@@@
+[{"Key":"\/","Value":"This is the root"}]
+@@@
+nodegroup_pos_list=@@@
+[{"Key":"\/","Value":{"x":100,"y":100}}]
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":45,"y":26}},{"Key":"S_END","Value":{"x":1974,"y":69}},{"Key":"S_WAIT","Value":{"x":284,"y":25}},{"Key":"S_RAYCAST","Value":{"x":1742,"y":58}},{"Key":"S_IS_CLICK","Value":{"x":1518,"y":114}},{"Key":"S_RAYCAST1","Value":{"x":41,"y":710}},{"Key":"S_CHECK_MDOWN","Value":{"x":1086,"y":36}},{"Key":"S_SAVE_POS","Value":{"x":275,"y":536}},{"Key":"S_WAIT_MOUSE_UP","Value":{"x":1103,"y":931}},{"Key":"S_SET_UP","Value":{"x":633,"y":516}},{"Key":"S_SET_RIGHT","Value":{"x":637,"y":653}},{"Key":"S_SET_DOWN","Value":{"x":631,"y":774}},{"Key":"S_SET_LEFT","Value":{"x":610,"y":894}},{"Key":"S_WAIT_REQCB","Value":{"x":557,"y":32}},{"Key":"S_REQCB","Value":{"x":872,"y":611}},{"Key":"S_WAIT_MOUSE_UP1","Value":{"x":785,"y":20}},{"Key":"C_0003","Value":{"x":186,"y":371}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Brackets\Brackets.exe" %1
+@@@
+source_editor_vs2015_support=1
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=0
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+option_hide_basestate_contents=1
+option_hide_branchcmt_onbranchbox=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+comment_font_size=0
+contents_font_size=0
+state_width=140
+state_height=20
+comment_block_height=4
+content_max_height=200
+comment_block_fixed=0
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/04/15 21:27:49
+; * pssgEditor version : 0.51.1337.973e447d167910305e637b16a7bdd1baa4ae7a6e
+psggfile=@@@
+TouchControl.psgg
+@@@
+xlsfile=@@@
+TouchControl.xlsx
+@@@
+guid=@@@
+a660a018-d119-4970-98d2-ab2e10a7b970
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+nodegroup_comment_list=@@@
+[{"Key":"\/","Value":"This is the root"}]
+@@@
+nodegroup_pos_list=@@@
+[{"Key":"\/","Value":{"x":100,"y":100}}]
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":45,"y":26}},{"Key":"S_END","Value":{"x":1974,"y":69}},{"Key":"S_WAIT","Value":{"x":284,"y":25}},{"Key":"S_RAYCAST","Value":{"x":1742,"y":58}},{"Key":"S_IS_CLICK","Value":{"x":1518,"y":114}},{"Key":"S_RAYCAST1","Value":{"x":41,"y":710}},{"Key":"S_CHECK_MDOWN","Value":{"x":1086,"y":36}},{"Key":"S_SAVE_POS","Value":{"x":275,"y":536}},{"Key":"S_WAIT_MOUSE_UP","Value":{"x":1103,"y":931}},{"Key":"S_SET_UP","Value":{"x":633,"y":516}},{"Key":"S_SET_RIGHT","Value":{"x":637,"y":653}},{"Key":"S_SET_DOWN","Value":{"x":631,"y":774}},{"Key":"S_SET_LEFT","Value":{"x":610,"y":894}},{"Key":"S_WAIT_REQCB","Value":{"x":557,"y":32}},{"Key":"S_REQCB","Value":{"x":872,"y":611}},{"Key":"S_WAIT_MOUSE_UP1","Value":{"x":785,"y":20}},{"Key":"C_0003","Value":{"x":186,"y":371}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Brackets\Brackets.exe" %1
+@@@
+source_editor_vs2015_support=1
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=0
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+option_hide_basestate_contents=1
+option_hide_branchcmt_onbranchbox=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+comment_font_size=0
+contents_font_size=0
+state_width=140
+state_height=20
+comment_block_height=4
+content_max_height=200
+comment_block_fixed=0
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>1149,37</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/04/15 21:41:35
+; * pssgEditor version : 0.51.1337.973e447d167910305e637b16a7bdd1baa4ae7a6e
+psggfile=@@@
+TouchControl.psgg
+@@@
+xlsfile=@@@
+TouchControl.xlsx
+@@@
+guid=@@@
+a660a018-d119-4970-98d2-ab2e10a7b970
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+nodegroup_comment_list=@@@
+[{"Key":"\/","Value":"This is the root"}]
+@@@
+nodegroup_pos_list=@@@
+[{"Key":"\/","Value":{"x":100,"y":100}}]
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":45,"y":26}},{"Key":"S_END","Value":{"x":1974,"y":69}},{"Key":"S_WAIT","Value":{"x":284,"y":25}},{"Key":"S_RAYCAST","Value":{"x":1742,"y":58}},{"Key":"S_IS_CLICK","Value":{"x":1518,"y":114}},{"Key":"S_RAYCAST1","Value":{"x":41,"y":710}},{"Key":"S_CHECK_MDOWN","Value":{"x":1149,"y":37}},{"Key":"S_SAVE_POS","Value":{"x":275,"y":536}},{"Key":"S_WAIT_MOUSE_UP","Value":{"x":1103,"y":931}},{"Key":"S_SET_UP","Value":{"x":633,"y":516}},{"Key":"S_SET_RIGHT","Value":{"x":637,"y":653}},{"Key":"S_SET_DOWN","Value":{"x":631,"y":774}},{"Key":"S_SET_LEFT","Value":{"x":610,"y":894}},{"Key":"S_WAIT_REQCB","Value":{"x":557,"y":32}},{"Key":"S_REQCB","Value":{"x":872,"y":611}},{"Key":"S_WAIT_MOUSE_UP1","Value":{"x":785,"y":20}},{"Key":"C_0003","Value":{"x":186,"y":371}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
@@ -16826,7 +17542,7 @@
         <v>452</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>484</v>
+        <v>599</v>
       </c>
       <c r="J14" s="10" t="s">
         <v>576</v>
@@ -16847,7 +17563,7 @@
         <v>507</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>542</v>
+        <v>596</v>
       </c>
       <c r="Q14" s="10" t="s">
         <v>43</v>
@@ -17386,7 +18102,7 @@
         <v>43</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>43</v>
+        <v>594</v>
       </c>
       <c r="Q24" s="10" t="s">
         <v>43</v>
@@ -17851,7 +18567,7 @@
         <v>560</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>561</v>
+        <v>602</v>
       </c>
       <c r="I33" s="16" t="s">
         <v>562</v>
@@ -17959,21 +18675,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet983.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1037.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet984.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1038.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17987,7 +18703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet985.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1039.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18001,7 +18717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet986.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1040.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18015,7 +18731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet987.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1041.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18029,7 +18745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet988.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1042.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
